--- a/data/trans_orig/P1429-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1429-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51A28C8C-7141-4B83-A7F0-FFA3AC0D2BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8CD5DF4-4E0A-4063-BE2A-1657CCBD2E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{17842DA3-A7FC-469F-9DDB-3F9D7AC444E1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3EEF4937-16EE-4F89-BE45-055588C73A74}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="513">
   <si>
     <t>Población con diagnóstico de osteoporosis en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,1507 +95,1489 @@
     <t>2,77%</t>
   </si>
   <si>
-    <t>1,11%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de osteoporosis en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de osteoporosis en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
   </si>
   <si>
     <t>5,4%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
   </si>
   <si>
     <t>94,6%</t>
   </si>
   <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de osteoporosis en 2023 (Tasa respuesta: 99,68%)</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
   </si>
   <si>
     <t>4,78%</t>
   </si>
   <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
   </si>
   <si>
     <t>95,22%</t>
   </si>
   <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
   </si>
   <si>
     <t>5,2%</t>
   </si>
   <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
   </si>
   <si>
     <t>94,56%</t>
   </si>
   <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de osteoporosis en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de osteoporosis en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de osteoporosis en 2023 (Tasa respuesta: 99,68%)</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
+    <t>92,0%</t>
   </si>
   <si>
     <t>95,47%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
   </si>
 </sst>
 </file>
@@ -2007,7 +1989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C037E8-81B3-4422-9193-1591A3BB0337}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE8BCA4-462E-4A02-8E2F-514F30BF61EE}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2627,10 +2609,10 @@
         <v>61</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,10 +2627,10 @@
         <v>317853</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>24</v>
@@ -2660,13 +2642,13 @@
         <v>322051</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M14" s="7">
         <v>631</v>
@@ -2675,13 +2657,13 @@
         <v>639904</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2737,7 +2719,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2755,37 +2737,37 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2806,7 +2788,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -2815,13 +2797,13 @@
         <v>14741</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -2830,13 +2812,13 @@
         <v>14741</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2854,7 +2836,7 @@
         <v>24</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>26</v>
@@ -2866,13 +2848,13 @@
         <v>356715</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M18" s="7">
         <v>730</v>
@@ -2881,13 +2863,13 @@
         <v>715386</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2943,7 +2925,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2961,37 +2943,37 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,13 +2988,13 @@
         <v>810</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -3021,13 +3003,13 @@
         <v>3272</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -3036,13 +3018,13 @@
         <v>4082</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,10 +3039,10 @@
         <v>202498</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>24</v>
@@ -3072,13 +3054,13 @@
         <v>204396</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M22" s="7">
         <v>400</v>
@@ -3087,13 +3069,13 @@
         <v>406894</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,7 +3131,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3167,7 +3149,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3197,7 +3179,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,7 +3200,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -3227,13 +3209,13 @@
         <v>11724</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -3242,13 +3224,13 @@
         <v>11724</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,7 +3248,7 @@
         <v>24</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>26</v>
@@ -3278,13 +3260,13 @@
         <v>266420</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M26" s="7">
         <v>525</v>
@@ -3293,13 +3275,13 @@
         <v>537231</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3355,7 +3337,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3373,7 +3355,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3403,7 +3385,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3421,10 +3403,10 @@
         <v>53</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H29" s="7">
         <v>23</v>
@@ -3433,13 +3415,13 @@
         <v>22277</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M29" s="7">
         <v>27</v>
@@ -3448,13 +3430,13 @@
         <v>26075</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,13 +3451,13 @@
         <v>611228</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H30" s="7">
         <v>598</v>
@@ -3484,13 +3466,13 @@
         <v>615942</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M30" s="7">
         <v>1192</v>
@@ -3499,13 +3481,13 @@
         <v>1227171</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P30" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="Q30" s="7" t="s">
-        <v>138</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,7 +3543,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3579,7 +3561,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3594,7 +3576,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3609,7 +3591,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,13 +3606,13 @@
         <v>27239</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="F33" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H33" s="7">
         <v>35</v>
@@ -3639,13 +3621,13 @@
         <v>37559</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="L33" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M33" s="7">
         <v>62</v>
@@ -3654,13 +3636,13 @@
         <v>64798</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3675,7 +3657,7 @@
         <v>716556</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>149</v>
@@ -3836,7 +3818,7 @@
         <v>160</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="H37" s="7">
         <v>141</v>
@@ -3845,13 +3827,13 @@
         <v>145291</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M37" s="7">
         <v>175</v>
@@ -3860,10 +3842,10 @@
         <v>179117</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>166</v>
@@ -3884,10 +3866,10 @@
         <v>167</v>
       </c>
       <c r="F38" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H38" s="7">
         <v>3156</v>
@@ -3896,28 +3878,28 @@
         <v>3233907</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M38" s="7">
         <v>6336</v>
       </c>
       <c r="N38" s="7">
-        <v>6476623</v>
+        <v>6476624</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3959,7 +3941,7 @@
         <v>6511</v>
       </c>
       <c r="N39" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>26</v>
@@ -3997,7 +3979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F32B9BF-7C40-49C4-A1D4-237135FF85BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FB5ACB-AC72-4748-9CF6-9902355285C5}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4324,7 +4306,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4360,7 +4342,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>114</v>
+        <v>179</v>
       </c>
       <c r="H9" s="7">
         <v>12</v>
@@ -4372,10 +4354,10 @@
         <v>17</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>180</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M9" s="7">
         <v>14</v>
@@ -4384,13 +4366,13 @@
         <v>17702</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>181</v>
+        <v>89</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4405,10 +4387,10 @@
         <v>502290</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>24</v>
@@ -4423,10 +4405,10 @@
         <v>27</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>937</v>
@@ -4435,13 +4417,13 @@
         <v>1010482</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,7 +4497,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4530,7 +4512,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4566,7 +4548,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -4575,13 +4557,13 @@
         <v>10307</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -4590,13 +4572,13 @@
         <v>11314</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4611,10 +4593,10 @@
         <v>323039</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>24</v>
@@ -4626,13 +4608,13 @@
         <v>330713</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>137</v>
+        <v>200</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M14" s="7">
         <v>626</v>
@@ -4641,13 +4623,13 @@
         <v>653752</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,7 +4685,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4751,7 +4733,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4781,13 +4763,13 @@
         <v>42441</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="M17" s="7">
         <v>40</v>
@@ -4796,13 +4778,13 @@
         <v>42441</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4820,7 +4802,7 @@
         <v>24</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>26</v>
@@ -4832,13 +4814,13 @@
         <v>633755</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M18" s="7">
         <v>1212</v>
@@ -4847,13 +4829,13 @@
         <v>1301472</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,7 +4891,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4927,7 +4909,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4942,7 +4924,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4957,7 +4939,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4978,7 +4960,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -4987,13 +4969,13 @@
         <v>8000</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="M21" s="7">
         <v>8</v>
@@ -5002,13 +4984,13 @@
         <v>8000</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,7 +5008,7 @@
         <v>24</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>26</v>
@@ -5038,13 +5020,13 @@
         <v>211591</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M22" s="7">
         <v>400</v>
@@ -5053,13 +5035,13 @@
         <v>424209</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5115,7 +5097,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5133,7 +5115,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>228</v>
+        <v>160</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5163,7 +5145,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5184,7 +5166,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>228</v>
+        <v>160</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -5193,13 +5175,13 @@
         <v>6212</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -5208,13 +5190,13 @@
         <v>6212</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>232</v>
+        <v>111</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>99</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,7 +5214,7 @@
         <v>24</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>233</v>
+        <v>168</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>26</v>
@@ -5244,13 +5226,13 @@
         <v>271884</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="M26" s="7">
         <v>523</v>
@@ -5259,13 +5241,13 @@
         <v>545865</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>237</v>
+        <v>119</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>106</v>
+        <v>240</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>238</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5321,7 +5303,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5369,7 +5351,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,13 +5366,13 @@
         <v>1071</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="H29" s="7">
         <v>29</v>
@@ -5399,13 +5381,13 @@
         <v>30975</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M29" s="7">
         <v>30</v>
@@ -5414,13 +5396,13 @@
         <v>32046</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,10 +5417,10 @@
         <v>661717</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>24</v>
@@ -5450,13 +5432,13 @@
         <v>662878</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M30" s="7">
         <v>1224</v>
@@ -5465,13 +5447,13 @@
         <v>1324595</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5527,7 +5509,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -5545,7 +5527,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5560,7 +5542,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5575,7 +5557,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5590,13 +5572,13 @@
         <v>1051</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>193</v>
+        <v>255</v>
       </c>
       <c r="H33" s="7">
         <v>27</v>
@@ -5605,13 +5587,13 @@
         <v>29965</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M33" s="7">
         <v>28</v>
@@ -5620,13 +5602,13 @@
         <v>31016</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>257</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5641,10 +5623,10 @@
         <v>778047</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>200</v>
+        <v>261</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>24</v>
@@ -5656,13 +5638,13 @@
         <v>792613</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="M34" s="7">
         <v>1445</v>
@@ -5671,13 +5653,13 @@
         <v>1570660</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>262</v>
+        <v>172</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5796,13 +5778,13 @@
         <v>6365</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>157</v>
+        <v>267</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H37" s="7">
         <v>131</v>
@@ -5811,13 +5793,13 @@
         <v>142365</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="M37" s="7">
         <v>136</v>
@@ -5826,13 +5808,13 @@
         <v>148730</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>269</v>
+        <v>59</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5847,13 +5829,13 @@
         <v>3419411</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H38" s="7">
         <v>3164</v>
@@ -5862,13 +5844,13 @@
         <v>3411625</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M38" s="7">
         <v>6367</v>
@@ -5877,13 +5859,13 @@
         <v>6831036</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>278</v>
+        <v>67</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5963,7 +5945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A2A5FA2-6369-40D6-AC47-C86F56AA75FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5CD6CE-1845-4159-87A5-7BF2DB55C4DE}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5980,7 +5962,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6093,7 +6075,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6108,7 +6090,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6123,7 +6105,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6138,13 +6120,13 @@
         <v>802</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -6153,10 +6135,10 @@
         <v>12687</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>286</v>
+        <v>165</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>287</v>
@@ -6210,7 +6192,7 @@
         <v>294</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>295</v>
+        <v>174</v>
       </c>
       <c r="M6" s="7">
         <v>530</v>
@@ -6219,13 +6201,13 @@
         <v>568976</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6299,7 +6281,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6314,7 +6296,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6344,13 +6326,13 @@
         <v>741</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>160</v>
+        <v>298</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -6365,7 +6347,7 @@
         <v>300</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>301</v>
       </c>
       <c r="M9" s="7">
         <v>16</v>
@@ -6374,13 +6356,13 @@
         <v>18491</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>217</v>
+        <v>302</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>302</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6395,10 +6377,10 @@
         <v>501834</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>169</v>
+        <v>305</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>24</v>
@@ -6410,13 +6392,13 @@
         <v>505334</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>28</v>
+        <v>307</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M10" s="7">
         <v>943</v>
@@ -6425,13 +6407,13 @@
         <v>1007168</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>224</v>
+        <v>309</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>306</v>
+        <v>136</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6520,7 +6502,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>308</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6535,7 +6517,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6565,13 +6547,13 @@
         <v>5261</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -6580,13 +6562,13 @@
         <v>5261</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>313</v>
+        <v>266</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>314</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6634,10 +6616,10 @@
         <v>319</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>320</v>
+        <v>98</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>321</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6693,7 +6675,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6711,7 +6693,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>322</v>
+        <v>268</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6726,7 +6708,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6741,7 +6723,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6756,13 +6738,13 @@
         <v>1828</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -6771,13 +6753,13 @@
         <v>24953</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>76</v>
+        <v>323</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -6786,13 +6768,13 @@
         <v>26780</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6807,10 +6789,10 @@
         <v>368136</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>24</v>
@@ -6822,13 +6804,13 @@
         <v>362330</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M18" s="7">
         <v>690</v>
@@ -6843,7 +6825,7 @@
         <v>334</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6899,7 +6881,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6917,7 +6899,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6932,7 +6914,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6947,7 +6929,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6968,7 +6950,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -6977,13 +6959,13 @@
         <v>2161</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -6992,13 +6974,13 @@
         <v>2161</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7016,7 +6998,7 @@
         <v>24</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>26</v>
@@ -7028,10 +7010,10 @@
         <v>216426</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>24</v>
@@ -7043,10 +7025,10 @@
         <v>427647</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>24</v>
@@ -7105,7 +7087,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7123,22 +7105,22 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7168,13 +7150,13 @@
         <v>2448</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -7183,13 +7165,13 @@
         <v>6211</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>193</v>
+        <v>298</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -7198,13 +7180,13 @@
         <v>8659</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>345</v>
+        <v>105</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7219,10 +7201,10 @@
         <v>260675</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>24</v>
@@ -7234,13 +7216,13 @@
         <v>266904</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>200</v>
+        <v>305</v>
       </c>
       <c r="M26" s="7">
         <v>514</v>
@@ -7249,13 +7231,13 @@
         <v>527579</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>350</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7311,7 +7293,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7329,7 +7311,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7359,7 +7341,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7374,13 +7356,13 @@
         <v>5033</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="H29" s="7">
         <v>28</v>
@@ -7389,13 +7371,13 @@
         <v>31832</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>240</v>
+        <v>166</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M29" s="7">
         <v>33</v>
@@ -7404,13 +7386,13 @@
         <v>36865</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7425,13 +7407,13 @@
         <v>651525</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="H30" s="7">
         <v>618</v>
@@ -7440,13 +7422,13 @@
         <v>659462</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>247</v>
+        <v>173</v>
       </c>
       <c r="M30" s="7">
         <v>1193</v>
@@ -7455,13 +7437,13 @@
         <v>1310987</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7517,7 +7499,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -7535,7 +7517,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7550,7 +7532,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7565,7 +7547,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7580,13 +7562,13 @@
         <v>921</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>367</v>
+        <v>53</v>
       </c>
       <c r="H33" s="7">
         <v>19</v>
@@ -7595,13 +7577,13 @@
         <v>21309</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M33" s="7">
         <v>20</v>
@@ -7610,10 +7592,10 @@
         <v>22229</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>372</v>
+        <v>255</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>373</v>
@@ -7634,7 +7616,7 @@
         <v>374</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>375</v>
+        <v>129</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>24</v>
@@ -7646,13 +7628,13 @@
         <v>804858</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="M34" s="7">
         <v>1485</v>
@@ -7661,13 +7643,13 @@
         <v>1582521</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="P34" s="7" t="s">
-        <v>380</v>
-      </c>
       <c r="Q34" s="7" t="s">
-        <v>381</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7786,13 +7768,13 @@
         <v>11772</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H37" s="7">
         <v>106</v>
@@ -7801,13 +7783,13 @@
         <v>122163</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="M37" s="7">
         <v>118</v>
@@ -7816,13 +7798,13 @@
         <v>133935</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>344</v>
+        <v>57</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>206</v>
+        <v>385</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7837,13 +7819,13 @@
         <v>3382578</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="F38" s="7" t="s">
-        <v>388</v>
-      </c>
       <c r="G38" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H38" s="7">
         <v>3232</v>
@@ -7852,13 +7834,13 @@
         <v>3422379</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="M38" s="7">
         <v>6451</v>
@@ -7867,13 +7849,13 @@
         <v>6804957</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="P38" s="7" t="s">
-        <v>213</v>
-      </c>
       <c r="Q38" s="7" t="s">
-        <v>349</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7953,7 +7935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10BEF51-4C52-435B-99DB-85CF664C2629}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260EE0A6-33CD-4F53-9901-63872669D554}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8083,7 +8065,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>308</v>
+        <v>21</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8098,7 +8080,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8131,10 +8113,10 @@
         <v>395</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>396</v>
+        <v>288</v>
       </c>
       <c r="H5" s="7">
         <v>19</v>
@@ -8143,13 +8125,13 @@
         <v>9513</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="M5" s="7">
         <v>22</v>
@@ -8158,13 +8140,13 @@
         <v>11784</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>400</v>
+        <v>125</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>402</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8179,13 +8161,13 @@
         <v>258027</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>404</v>
+        <v>295</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="H6" s="7">
         <v>519</v>
@@ -8194,13 +8176,13 @@
         <v>261890</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>408</v>
+        <v>379</v>
       </c>
       <c r="M6" s="7">
         <v>847</v>
@@ -8209,13 +8191,13 @@
         <v>519916</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>409</v>
+        <v>134</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>410</v>
+        <v>340</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8289,7 +8271,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -8304,7 +8286,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -8319,7 +8301,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>412</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8334,13 +8316,13 @@
         <v>941</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>412</v>
+        <v>355</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="H9" s="7">
         <v>27</v>
@@ -8349,13 +8331,13 @@
         <v>18472</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>406</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="M9" s="7">
         <v>28</v>
@@ -8364,13 +8346,13 @@
         <v>19413</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8385,10 +8367,10 @@
         <v>517286</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>419</v>
+        <v>362</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>24</v>
@@ -8400,13 +8382,13 @@
         <v>530110</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>68</v>
+        <v>414</v>
       </c>
       <c r="M10" s="7">
         <v>1061</v>
@@ -8415,13 +8397,13 @@
         <v>1047396</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8495,7 +8477,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -8510,7 +8492,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -8525,7 +8507,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8546,7 +8528,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>427</v>
+        <v>312</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -8555,13 +8537,13 @@
         <v>17734</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -8570,13 +8552,13 @@
         <v>18699</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8591,10 +8573,10 @@
         <v>320602</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>434</v>
+        <v>316</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>24</v>
@@ -8606,13 +8588,13 @@
         <v>355550</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="M14" s="7">
         <v>863</v>
@@ -8621,13 +8603,13 @@
         <v>676152</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8683,7 +8665,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8701,7 +8683,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -8716,7 +8698,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -8746,13 +8728,13 @@
         <v>7497</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="H17" s="7">
         <v>71</v>
@@ -8761,13 +8743,13 @@
         <v>34705</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="M17" s="7">
         <v>78</v>
@@ -8776,13 +8758,13 @@
         <v>42202</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8797,13 +8779,13 @@
         <v>314743</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>119</v>
+        <v>185</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="H18" s="7">
         <v>528</v>
@@ -8812,13 +8794,13 @@
         <v>393851</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="M18" s="7">
         <v>813</v>
@@ -8827,13 +8809,13 @@
         <v>708594</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8889,7 +8871,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -8907,7 +8889,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -8916,13 +8898,13 @@
         <v>28017</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>336</v>
+        <v>444</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -8931,13 +8913,13 @@
         <v>28017</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>456</v>
+        <v>95</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8952,13 +8934,13 @@
         <v>1644</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>372</v>
+        <v>448</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>98</v>
+        <v>254</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>206</v>
+        <v>288</v>
       </c>
       <c r="H21" s="7">
         <v>28</v>
@@ -8967,13 +8949,13 @@
         <v>11498</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>459</v>
+        <v>42</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>460</v>
+        <v>322</v>
       </c>
       <c r="M21" s="7">
         <v>31</v>
@@ -8982,13 +8964,13 @@
         <v>13142</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>324</v>
+        <v>384</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>207</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9003,13 +8985,13 @@
         <v>195104</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>381</v>
+        <v>451</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>213</v>
+        <v>295</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>107</v>
+        <v>400</v>
       </c>
       <c r="H22" s="7">
         <v>463</v>
@@ -9018,13 +9000,13 @@
         <v>219999</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="M22" s="7">
         <v>739</v>
@@ -9033,13 +9015,13 @@
         <v>415102</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>467</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9095,7 +9077,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9113,7 +9095,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -9122,13 +9104,13 @@
         <v>718</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -9137,13 +9119,13 @@
         <v>718</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>470</v>
+        <v>430</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9158,13 +9140,13 @@
         <v>4671</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>243</v>
+        <v>459</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>471</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -9173,13 +9155,13 @@
         <v>17028</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="M25" s="7">
         <v>45</v>
@@ -9188,13 +9170,13 @@
         <v>21699</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>476</v>
+        <v>382</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9206,16 +9188,16 @@
         <v>363</v>
       </c>
       <c r="D26" s="7">
-        <v>272008</v>
+        <v>272007</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>250</v>
+        <v>465</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>478</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>25</v>
+        <v>168</v>
       </c>
       <c r="H26" s="7">
         <v>421</v>
@@ -9224,13 +9206,13 @@
         <v>257876</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="M26" s="7">
         <v>784</v>
@@ -9239,13 +9221,13 @@
         <v>529884</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9257,7 +9239,7 @@
         <v>370</v>
       </c>
       <c r="D27" s="7">
-        <v>276679</v>
+        <v>276678</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>26</v>
@@ -9301,7 +9283,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -9319,7 +9301,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -9349,7 +9331,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9364,13 +9346,13 @@
         <v>4899</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>230</v>
+        <v>471</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>484</v>
+        <v>339</v>
       </c>
       <c r="H29" s="7">
         <v>62</v>
@@ -9379,13 +9361,13 @@
         <v>37592</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="M29" s="7">
         <v>67</v>
@@ -9394,13 +9376,13 @@
         <v>42491</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>302</v>
+        <v>475</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>229</v>
+        <v>476</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9415,28 +9397,28 @@
         <v>617722</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>236</v>
+        <v>478</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>489</v>
+        <v>342</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>107</v>
+        <v>424</v>
       </c>
       <c r="H30" s="7">
         <v>889</v>
       </c>
       <c r="I30" s="7">
-        <v>761581</v>
+        <v>761582</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="M30" s="7">
         <v>1478</v>
@@ -9445,13 +9427,13 @@
         <v>1379303</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>306</v>
+        <v>482</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>234</v>
+        <v>484</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9478,7 +9460,7 @@
         <v>951</v>
       </c>
       <c r="I31" s="7">
-        <v>799173</v>
+        <v>799174</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>26</v>
@@ -9507,7 +9489,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -9525,7 +9507,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -9534,13 +9516,13 @@
         <v>2762</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>95</v>
+        <v>422</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -9549,13 +9531,13 @@
         <v>2762</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>193</v>
+        <v>395</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9570,13 +9552,13 @@
         <v>6759</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>230</v>
+        <v>471</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>283</v>
+        <v>353</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="H33" s="7">
         <v>45</v>
@@ -9585,13 +9567,13 @@
         <v>29911</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>495</v>
+        <v>96</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>496</v>
+        <v>235</v>
       </c>
       <c r="M33" s="7">
         <v>53</v>
@@ -9600,13 +9582,13 @@
         <v>36670</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>398</v>
+        <v>486</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9621,13 +9603,13 @@
         <v>852669</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>236</v>
+        <v>478</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>387</v>
+        <v>490</v>
       </c>
       <c r="H34" s="7">
         <v>1014</v>
@@ -9636,13 +9618,13 @@
         <v>834364</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="M34" s="7">
         <v>1768</v>
@@ -9651,13 +9633,13 @@
         <v>1687033</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>213</v>
+        <v>494</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>347</v>
+        <v>470</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>503</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9740,13 +9722,13 @@
         <v>31497</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -9755,13 +9737,13 @@
         <v>31497</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9776,13 +9758,13 @@
         <v>29648</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>367</v>
+        <v>501</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="H37" s="7">
         <v>321</v>
@@ -9791,13 +9773,13 @@
         <v>176453</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>58</v>
+        <v>290</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="M37" s="7">
         <v>356</v>
@@ -9806,13 +9788,13 @@
         <v>206101</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>513</v>
+        <v>382</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>418</v>
+        <v>504</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9827,13 +9809,13 @@
         <v>3348158</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>375</v>
+        <v>508</v>
       </c>
       <c r="H38" s="7">
         <v>5020</v>
@@ -9842,28 +9824,28 @@
         <v>3615221</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>155</v>
+        <v>509</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="M38" s="7">
         <v>8353</v>
       </c>
       <c r="N38" s="7">
-        <v>6963380</v>
+        <v>6963379</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>184</v>
+        <v>425</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>391</v>
+        <v>512</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9905,7 +9887,7 @@
         <v>8715</v>
       </c>
       <c r="N39" s="7">
-        <v>7200977</v>
+        <v>7200976</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>26</v>

--- a/data/trans_orig/P1429-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1429-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8CD5DF4-4E0A-4063-BE2A-1657CCBD2E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D740422E-0CB7-491E-840F-0849C6ED9BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3EEF4937-16EE-4F89-BE45-055588C73A74}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7507B3DD-681E-424A-B013-D5656F1F2DC3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="508">
   <si>
     <t>Población con diagnóstico de osteoporosis en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,1462 +95,1447 @@
     <t>2,77%</t>
   </si>
   <si>
-    <t>1,14%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de osteoporosis en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de osteoporosis en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de osteoporosis en 2023 (Tasa respuesta: 99,68%)</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
   </si>
   <si>
     <t>5,16%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de osteoporosis en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de osteoporosis en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de osteoporosis en 2023 (Tasa respuesta: 99,68%)</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
   </si>
   <si>
     <t>2,54%</t>
@@ -1989,7 +1974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE8BCA4-462E-4A02-8E2F-514F30BF61EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B345C37E-5430-4BAD-BD00-5EFF1ECC6EBF}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2546,22 +2531,22 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2576,13 +2561,13 @@
         <v>993</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -2591,13 +2576,13 @@
         <v>13361</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -2606,10 +2591,10 @@
         <v>14354</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>62</v>
@@ -2663,7 +2648,7 @@
         <v>69</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2719,7 +2704,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2737,7 +2722,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2752,7 +2737,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2767,7 +2752,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,7 +2773,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -2797,13 +2782,13 @@
         <v>14741</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -2812,10 +2797,10 @@
         <v>14741</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>79</v>
@@ -2869,7 +2854,7 @@
         <v>85</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2925,7 +2910,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2943,37 +2928,37 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2988,13 +2973,13 @@
         <v>810</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -3003,10 +2988,10 @@
         <v>3272</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>93</v>
@@ -3054,13 +3039,13 @@
         <v>204396</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M22" s="7">
         <v>400</v>
@@ -3069,13 +3054,13 @@
         <v>406894</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3131,7 +3116,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3149,7 +3134,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3179,7 +3164,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3200,7 +3185,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -3209,13 +3194,13 @@
         <v>11724</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -3224,13 +3209,13 @@
         <v>11724</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>112</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3278,10 +3263,10 @@
         <v>117</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,7 +3322,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3355,37 +3340,37 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,10 +3418,10 @@
         <v>127</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,13 +3436,13 @@
         <v>611228</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H30" s="7">
         <v>598</v>
@@ -3466,13 +3451,13 @@
         <v>615942</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M30" s="7">
         <v>1192</v>
@@ -3481,13 +3466,13 @@
         <v>1227171</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3543,7 +3528,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3561,7 +3546,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3576,7 +3561,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3591,7 +3576,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,13 +3591,13 @@
         <v>27239</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H33" s="7">
         <v>35</v>
@@ -3621,13 +3606,13 @@
         <v>37559</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M33" s="7">
         <v>62</v>
@@ -3636,13 +3621,13 @@
         <v>64798</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,13 +3642,13 @@
         <v>716556</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H34" s="7">
         <v>710</v>
@@ -3672,13 +3657,13 @@
         <v>745952</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M34" s="7">
         <v>1419</v>
@@ -3687,13 +3672,13 @@
         <v>1462508</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3767,7 +3752,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3782,7 +3767,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3797,7 +3782,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,13 +3797,13 @@
         <v>33826</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="H37" s="7">
         <v>141</v>
@@ -3827,13 +3812,13 @@
         <v>145291</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M37" s="7">
         <v>175</v>
@@ -3842,13 +3827,13 @@
         <v>179117</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3860,16 +3845,16 @@
         <v>3180</v>
       </c>
       <c r="D38" s="7">
-        <v>3242718</v>
+        <v>3242717</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H38" s="7">
         <v>3156</v>
@@ -3878,13 +3863,13 @@
         <v>3233907</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M38" s="7">
         <v>6336</v>
@@ -3893,13 +3878,13 @@
         <v>6476624</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3911,7 +3896,7 @@
         <v>3214</v>
       </c>
       <c r="D39" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>26</v>
@@ -3955,7 +3940,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3979,7 +3964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FB5ACB-AC72-4748-9CF6-9902355285C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAEB1C3-4ABB-466F-B00B-6FCCD9E35736}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3996,7 +3981,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4101,39 +4086,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,39 +4131,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4191,39 +4176,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4236,39 +4221,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,7 +4291,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4336,13 +4321,13 @@
         <v>3237</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H9" s="7">
         <v>12</v>
@@ -4354,10 +4339,10 @@
         <v>17</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M9" s="7">
         <v>14</v>
@@ -4366,13 +4351,13 @@
         <v>17702</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>89</v>
+        <v>186</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,10 +4372,10 @@
         <v>502290</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>24</v>
@@ -4405,10 +4390,10 @@
         <v>27</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="M10" s="7">
         <v>937</v>
@@ -4417,13 +4402,13 @@
         <v>1010482</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,7 +4482,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4512,7 +4497,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4527,7 +4512,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4542,13 +4527,13 @@
         <v>1007</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>192</v>
+        <v>123</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -4557,13 +4542,13 @@
         <v>10307</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -4572,13 +4557,13 @@
         <v>11314</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4596,7 +4581,7 @@
         <v>63</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>199</v>
+        <v>131</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>24</v>
@@ -4608,13 +4593,13 @@
         <v>330713</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M14" s="7">
         <v>626</v>
@@ -4623,13 +4608,13 @@
         <v>653752</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4685,7 +4670,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4703,7 +4688,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4718,7 +4703,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4733,7 +4718,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>206</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,7 +4739,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -4766,10 +4751,10 @@
         <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M17" s="7">
         <v>40</v>
@@ -4778,13 +4763,13 @@
         <v>42441</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4814,13 +4799,13 @@
         <v>633755</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>215</v>
+        <v>100</v>
       </c>
       <c r="M18" s="7">
         <v>1212</v>
@@ -4829,13 +4814,13 @@
         <v>1301472</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>218</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4891,7 +4876,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4909,7 +4894,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4924,7 +4909,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4939,7 +4924,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4960,7 +4945,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -4969,13 +4954,13 @@
         <v>8000</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>222</v>
+        <v>128</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="M21" s="7">
         <v>8</v>
@@ -4984,13 +4969,13 @@
         <v>8000</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>220</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5008,7 +4993,7 @@
         <v>24</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>26</v>
@@ -5020,13 +5005,13 @@
         <v>211591</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>229</v>
+        <v>138</v>
       </c>
       <c r="M22" s="7">
         <v>400</v>
@@ -5035,13 +5020,13 @@
         <v>424209</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>232</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5097,7 +5082,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5115,7 +5100,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5145,7 +5130,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,7 +5151,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -5175,13 +5160,13 @@
         <v>6212</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -5190,13 +5175,13 @@
         <v>6212</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>111</v>
+        <v>227</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>71</v>
+        <v>228</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5214,7 +5199,7 @@
         <v>24</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>26</v>
@@ -5226,13 +5211,13 @@
         <v>271884</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="M26" s="7">
         <v>523</v>
@@ -5241,13 +5226,13 @@
         <v>545865</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>119</v>
+        <v>233</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>80</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5303,7 +5288,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5321,7 +5306,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5336,7 +5321,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -5351,7 +5336,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>206</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,13 +5351,13 @@
         <v>1071</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="H29" s="7">
         <v>29</v>
@@ -5381,13 +5366,13 @@
         <v>30975</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M29" s="7">
         <v>30</v>
@@ -5396,13 +5381,13 @@
         <v>32046</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,10 +5402,10 @@
         <v>661717</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>131</v>
+        <v>243</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>24</v>
@@ -5432,13 +5417,13 @@
         <v>662878</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M30" s="7">
         <v>1224</v>
@@ -5447,13 +5432,13 @@
         <v>1324595</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5509,7 +5494,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -5527,7 +5512,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>253</v>
+        <v>95</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5542,7 +5527,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5557,7 +5542,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5572,13 +5557,13 @@
         <v>1051</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H33" s="7">
         <v>27</v>
@@ -5587,13 +5572,13 @@
         <v>29965</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M33" s="7">
         <v>28</v>
@@ -5602,13 +5587,13 @@
         <v>31016</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>164</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5623,10 +5608,10 @@
         <v>778047</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>24</v>
@@ -5638,13 +5623,13 @@
         <v>792613</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M34" s="7">
         <v>1445</v>
@@ -5653,13 +5638,13 @@
         <v>1570660</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,7 +5718,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -5748,7 +5733,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -5763,7 +5748,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5778,13 +5763,13 @@
         <v>6365</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>267</v>
+        <v>159</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>268</v>
+        <v>89</v>
       </c>
       <c r="H37" s="7">
         <v>131</v>
@@ -5793,13 +5778,13 @@
         <v>142365</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>270</v>
+        <v>218</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M37" s="7">
         <v>136</v>
@@ -5808,13 +5793,13 @@
         <v>148730</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5829,13 +5814,13 @@
         <v>3419411</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>275</v>
+        <v>101</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="H38" s="7">
         <v>3164</v>
@@ -5844,13 +5829,13 @@
         <v>3411625</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>279</v>
+        <v>223</v>
       </c>
       <c r="M38" s="7">
         <v>6367</v>
@@ -5862,10 +5847,10 @@
         <v>67</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5921,7 +5906,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -5945,7 +5930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5CD6CE-1845-4159-87A5-7BF2DB55C4DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2491BFAB-5B25-405C-B18A-6CC38C96351F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5962,7 +5947,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6075,7 +6060,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6090,7 +6075,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6105,7 +6090,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6120,13 +6105,13 @@
         <v>802</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>253</v>
+        <v>95</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -6135,13 +6120,13 @@
         <v>12687</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>165</v>
+        <v>279</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -6150,13 +6135,13 @@
         <v>13488</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6171,10 +6156,10 @@
         <v>292959</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>291</v>
+        <v>104</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>24</v>
@@ -6186,13 +6171,13 @@
         <v>276016</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>174</v>
+        <v>286</v>
       </c>
       <c r="M6" s="7">
         <v>530</v>
@@ -6201,13 +6186,13 @@
         <v>568976</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6281,7 +6266,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6296,7 +6281,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6326,13 +6311,13 @@
         <v>741</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>206</v>
+        <v>122</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -6341,13 +6326,13 @@
         <v>17750</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>299</v>
+        <v>218</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="M9" s="7">
         <v>16</v>
@@ -6356,13 +6341,13 @@
         <v>18491</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>128</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6377,10 +6362,10 @@
         <v>501834</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>304</v>
+        <v>132</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>24</v>
@@ -6392,13 +6377,13 @@
         <v>505334</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>306</v>
+        <v>223</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="M10" s="7">
         <v>943</v>
@@ -6407,13 +6392,13 @@
         <v>1007168</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6487,7 +6472,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6502,7 +6487,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>297</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6517,7 +6502,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6538,7 +6523,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -6547,13 +6532,13 @@
         <v>5261</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>312</v>
+        <v>56</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -6562,13 +6547,13 @@
         <v>5261</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6586,7 +6571,7 @@
         <v>24</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>315</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -6598,13 +6583,13 @@
         <v>331048</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>316</v>
+        <v>64</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>318</v>
+        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>663</v>
@@ -6613,13 +6598,13 @@
         <v>649613</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>98</v>
+        <v>304</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6675,7 +6660,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6693,7 +6678,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6708,7 +6693,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6723,7 +6708,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>253</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6738,13 +6723,13 @@
         <v>1828</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -6753,13 +6738,13 @@
         <v>24953</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -6768,13 +6753,13 @@
         <v>26780</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>326</v>
+        <v>60</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6789,10 +6774,10 @@
         <v>368136</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>24</v>
@@ -6804,13 +6789,13 @@
         <v>362330</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="M18" s="7">
         <v>690</v>
@@ -6819,13 +6804,13 @@
         <v>730467</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>335</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6881,7 +6866,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6899,7 +6884,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6914,7 +6899,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6929,7 +6914,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6950,7 +6935,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -6965,7 +6950,7 @@
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -6974,13 +6959,13 @@
         <v>2161</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6998,7 +6983,7 @@
         <v>24</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>232</v>
+        <v>323</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>26</v>
@@ -7010,10 +6995,10 @@
         <v>216426</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>24</v>
@@ -7025,10 +7010,10 @@
         <v>427647</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>24</v>
@@ -7087,7 +7072,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7105,7 +7090,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>343</v>
+        <v>289</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7120,7 +7105,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7150,13 +7135,13 @@
         <v>2448</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -7165,13 +7150,13 @@
         <v>6211</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>108</v>
+        <v>328</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>298</v>
+        <v>112</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -7180,13 +7165,13 @@
         <v>8659</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>105</v>
+        <v>236</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>347</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7201,10 +7186,10 @@
         <v>260675</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>24</v>
@@ -7216,13 +7201,13 @@
         <v>266904</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>116</v>
+        <v>333</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>305</v>
+        <v>118</v>
       </c>
       <c r="M26" s="7">
         <v>514</v>
@@ -7231,13 +7216,13 @@
         <v>527579</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>352</v>
+        <v>201</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>113</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7293,7 +7278,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7311,7 +7296,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7326,7 +7311,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -7341,7 +7326,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7356,10 +7341,10 @@
         <v>5033</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>339</v>
@@ -7371,13 +7356,13 @@
         <v>31832</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="M29" s="7">
         <v>33</v>
@@ -7386,13 +7371,13 @@
         <v>36865</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7407,13 +7392,13 @@
         <v>651525</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="H30" s="7">
         <v>618</v>
@@ -7422,13 +7407,13 @@
         <v>659462</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="M30" s="7">
         <v>1193</v>
@@ -7437,13 +7422,13 @@
         <v>1310987</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7499,7 +7484,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -7517,7 +7502,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7532,7 +7517,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7547,7 +7532,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7562,13 +7547,13 @@
         <v>921</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>53</v>
+        <v>182</v>
       </c>
       <c r="H33" s="7">
         <v>19</v>
@@ -7577,13 +7562,13 @@
         <v>21309</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="M33" s="7">
         <v>20</v>
@@ -7592,13 +7577,13 @@
         <v>22229</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>255</v>
+        <v>319</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7613,10 +7598,10 @@
         <v>777662</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>24</v>
@@ -7628,13 +7613,13 @@
         <v>804858</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>377</v>
+        <v>335</v>
       </c>
       <c r="M34" s="7">
         <v>1485</v>
@@ -7643,13 +7628,13 @@
         <v>1582521</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>261</v>
+        <v>363</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7723,7 +7708,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -7738,7 +7723,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -7753,7 +7738,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7768,13 +7753,13 @@
         <v>11772</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>266</v>
+        <v>364</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>380</v>
+        <v>297</v>
       </c>
       <c r="H37" s="7">
         <v>106</v>
@@ -7783,13 +7768,13 @@
         <v>122163</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="M37" s="7">
         <v>118</v>
@@ -7798,13 +7783,13 @@
         <v>133935</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>57</v>
+        <v>369</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7819,13 +7804,13 @@
         <v>3382578</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>274</v>
+        <v>373</v>
       </c>
       <c r="H38" s="7">
         <v>3232</v>
@@ -7834,13 +7819,13 @@
         <v>3422379</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="M38" s="7">
         <v>6451</v>
@@ -7849,13 +7834,13 @@
         <v>6804957</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>64</v>
+        <v>379</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7911,7 +7896,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -7935,7 +7920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260EE0A6-33CD-4F53-9901-63872669D554}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C0F2C0-BC17-49C8-AAA9-4EEA8698AF6F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7952,7 +7937,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8065,7 +8050,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>21</v>
+        <v>297</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8080,7 +8065,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8095,7 +8080,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8110,13 +8095,13 @@
         <v>2271</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="H5" s="7">
         <v>19</v>
@@ -8125,13 +8110,13 @@
         <v>9513</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="M5" s="7">
         <v>22</v>
@@ -8140,13 +8125,13 @@
         <v>11784</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>125</v>
+        <v>386</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8161,13 +8146,13 @@
         <v>258027</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="H6" s="7">
         <v>519</v>
@@ -8176,13 +8161,13 @@
         <v>261890</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="M6" s="7">
         <v>847</v>
@@ -8191,13 +8176,13 @@
         <v>519916</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>134</v>
+        <v>393</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8271,7 +8256,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -8286,7 +8271,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>253</v>
+        <v>95</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -8301,7 +8286,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8316,13 +8301,13 @@
         <v>941</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="H9" s="7">
         <v>27</v>
@@ -8331,13 +8316,13 @@
         <v>18472</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="M9" s="7">
         <v>28</v>
@@ -8346,13 +8331,13 @@
         <v>19413</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8367,10 +8352,10 @@
         <v>517286</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>362</v>
+        <v>403</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>24</v>
@@ -8382,13 +8367,13 @@
         <v>530110</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="M10" s="7">
         <v>1061</v>
@@ -8397,13 +8382,13 @@
         <v>1047396</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8477,7 +8462,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -8492,7 +8477,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -8507,7 +8492,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8522,13 +8507,13 @@
         <v>965</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>312</v>
+        <v>56</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -8537,13 +8522,13 @@
         <v>17734</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -8552,13 +8537,13 @@
         <v>18699</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8573,10 +8558,10 @@
         <v>320602</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>316</v>
+        <v>64</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>24</v>
@@ -8588,13 +8573,13 @@
         <v>355550</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="M14" s="7">
         <v>863</v>
@@ -8603,13 +8588,13 @@
         <v>676152</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8665,7 +8650,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8683,7 +8668,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -8698,7 +8683,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -8713,7 +8698,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8728,13 +8713,13 @@
         <v>7497</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="H17" s="7">
         <v>71</v>
@@ -8743,13 +8728,13 @@
         <v>34705</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>207</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="M17" s="7">
         <v>78</v>
@@ -8758,13 +8743,13 @@
         <v>42202</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>434</v>
+        <v>291</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8779,13 +8764,13 @@
         <v>314743</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="H18" s="7">
         <v>528</v>
@@ -8794,13 +8779,13 @@
         <v>393851</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M18" s="7">
         <v>813</v>
@@ -8809,13 +8794,13 @@
         <v>708594</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>440</v>
+        <v>294</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8871,7 +8856,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -8889,7 +8874,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -8898,13 +8883,13 @@
         <v>28017</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -8913,13 +8898,13 @@
         <v>28017</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>95</v>
+        <v>438</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8934,13 +8919,13 @@
         <v>1644</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="H21" s="7">
         <v>28</v>
@@ -8949,13 +8934,13 @@
         <v>11498</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>42</v>
+        <v>442</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="M21" s="7">
         <v>31</v>
@@ -8964,13 +8949,13 @@
         <v>13142</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8985,13 +8970,13 @@
         <v>195104</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="H22" s="7">
         <v>463</v>
@@ -9000,13 +8985,13 @@
         <v>219999</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="M22" s="7">
         <v>739</v>
@@ -9015,13 +9000,13 @@
         <v>415102</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9077,7 +9062,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9095,7 +9080,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -9104,13 +9089,13 @@
         <v>718</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>458</v>
+        <v>196</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -9119,13 +9104,13 @@
         <v>718</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9140,13 +9125,13 @@
         <v>4671</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>452</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -9155,13 +9140,13 @@
         <v>17028</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="M25" s="7">
         <v>45</v>
@@ -9170,13 +9155,13 @@
         <v>21699</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>463</v>
+        <v>355</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>382</v>
+        <v>456</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9191,13 +9176,13 @@
         <v>272007</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>156</v>
+        <v>459</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H26" s="7">
         <v>421</v>
@@ -9206,13 +9191,13 @@
         <v>257876</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>467</v>
+        <v>100</v>
       </c>
       <c r="M26" s="7">
         <v>784</v>
@@ -9221,13 +9206,13 @@
         <v>529884</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9283,7 +9268,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -9301,7 +9286,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -9331,7 +9316,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9346,13 +9331,13 @@
         <v>4899</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="H29" s="7">
         <v>62</v>
@@ -9361,13 +9346,13 @@
         <v>37592</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>472</v>
+        <v>265</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="M29" s="7">
         <v>67</v>
@@ -9376,13 +9361,13 @@
         <v>42491</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9397,13 +9382,13 @@
         <v>617722</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="H30" s="7">
         <v>889</v>
@@ -9412,13 +9397,13 @@
         <v>761582</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>479</v>
+        <v>271</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="M30" s="7">
         <v>1478</v>
@@ -9427,13 +9412,13 @@
         <v>1379303</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9489,7 +9474,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -9507,7 +9492,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -9516,13 +9501,13 @@
         <v>2762</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -9531,13 +9516,13 @@
         <v>2762</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9552,13 +9537,13 @@
         <v>6759</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="H33" s="7">
         <v>45</v>
@@ -9567,13 +9552,13 @@
         <v>29911</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>96</v>
+        <v>477</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>235</v>
+        <v>478</v>
       </c>
       <c r="M33" s="7">
         <v>53</v>
@@ -9582,13 +9567,13 @@
         <v>36670</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9603,13 +9588,13 @@
         <v>852669</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="H34" s="7">
         <v>1014</v>
@@ -9618,13 +9603,13 @@
         <v>834364</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="M34" s="7">
         <v>1768</v>
@@ -9633,13 +9618,13 @@
         <v>1687033</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9713,7 +9698,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -9722,13 +9707,13 @@
         <v>31497</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -9737,13 +9722,13 @@
         <v>31497</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9758,13 +9743,13 @@
         <v>29648</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="H37" s="7">
         <v>321</v>
@@ -9773,13 +9758,13 @@
         <v>176453</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>290</v>
+        <v>497</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>19</v>
+        <v>498</v>
       </c>
       <c r="M37" s="7">
         <v>356</v>
@@ -9788,13 +9773,13 @@
         <v>206101</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>382</v>
+        <v>456</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9809,13 +9794,13 @@
         <v>3348158</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="H38" s="7">
         <v>5020</v>
@@ -9824,13 +9809,13 @@
         <v>3615221</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="M38" s="7">
         <v>8353</v>
@@ -9839,13 +9824,13 @@
         <v>6963379</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9901,7 +9886,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1429-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1429-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79E5FD81-4BE2-40AC-BB97-161D66403315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C865B8F5-5137-4D41-B37C-BD5D81843749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8A6D583E-1CDD-462B-ABE5-76E4E5F24513}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{359ED7EE-81B4-496C-83F7-4092B5889FC4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="503">
   <si>
     <t>Población con diagnóstico de osteoporosis en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -524,7 +524,46 @@
     <t>Población con diagnóstico de osteoporosis en 2012 (Tasa respuesta: 99,94%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
   </si>
   <si>
     <t>0,64%</t>
@@ -593,916 +632,922 @@
     <t>99,19%</t>
   </si>
   <si>
-    <t>6,28%</t>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de osteoporosis en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de osteoporosis en 2023 (Tasa respuesta: 99,61%)</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
   </si>
   <si>
     <t>4,55%</t>
   </si>
   <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
   </si>
   <si>
     <t>95,45%</t>
   </si>
   <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de osteoporosis en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de osteoporosis en 2023 (Tasa respuesta: 99,61%)</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
   </si>
 </sst>
 </file>
@@ -1914,7 +1959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C1F325-FE98-4DAB-A940-40E249AF5FBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521F4BD8-9C96-4658-A80A-97A624807524}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3326,7 +3371,7 @@
         <v>3180</v>
       </c>
       <c r="D29" s="7">
-        <v>3242718</v>
+        <v>3242717</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>151</v>
@@ -3341,7 +3386,7 @@
         <v>3156</v>
       </c>
       <c r="I29" s="7">
-        <v>3233907</v>
+        <v>3233906</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>154</v>
@@ -3356,7 +3401,7 @@
         <v>6336</v>
       </c>
       <c r="N29" s="7">
-        <v>6476623</v>
+        <v>6476624</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>157</v>
@@ -3377,7 +3422,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>23</v>
@@ -3392,7 +3437,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>23</v>
@@ -3407,7 +3452,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>23</v>
@@ -3445,7 +3490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BABCF69A-F295-405D-AAD3-7D5552AC1BC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18322279-D5AB-439C-95CE-15CBAC69D2FC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3565,41 +3610,47 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>161</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="I4" s="7">
+        <v>12472</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="N4" s="7">
+        <v>12472</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,43 +3659,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>281</v>
+      </c>
+      <c r="D5" s="7">
+        <v>293735</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>245</v>
+      </c>
+      <c r="I5" s="7">
+        <v>274773</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>526</v>
+      </c>
+      <c r="N5" s="7">
+        <v>568508</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,43 +3710,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>281</v>
+      </c>
+      <c r="D6" s="7">
+        <v>293735</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>537</v>
+      </c>
+      <c r="N6" s="7">
+        <v>580980</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>161</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,7 +3769,7 @@
         <v>3237</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
@@ -3727,7 +3790,7 @@
         <v>49</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -3736,13 +3799,13 @@
         <v>17702</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,7 +3820,7 @@
         <v>502290</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>107</v>
@@ -3775,7 +3838,7 @@
         <v>24</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>57</v>
@@ -3787,13 +3850,13 @@
         <v>1010482</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,7 +3930,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -3879,10 +3942,10 @@
         <v>117</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -3891,13 +3954,13 @@
         <v>11314</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,7 +3978,7 @@
         <v>56</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -3930,10 +3993,10 @@
         <v>124</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="M11" s="7">
         <v>626</v>
@@ -3942,13 +4005,13 @@
         <v>653752</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4022,37 +4085,37 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>197</v>
       </c>
       <c r="H13" s="7">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I13" s="7">
-        <v>42441</v>
+        <v>29968</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="M13" s="7">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="N13" s="7">
-        <v>42441</v>
+        <v>29968</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,49 +4124,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>625</v>
+        <v>344</v>
       </c>
       <c r="D14" s="7">
-        <v>667717</v>
+        <v>373982</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>56</v>
+        <v>204</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H14" s="7">
-        <v>587</v>
+        <v>342</v>
       </c>
       <c r="I14" s="7">
-        <v>633755</v>
+        <v>358983</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="M14" s="7">
-        <v>1212</v>
+        <v>686</v>
       </c>
       <c r="N14" s="7">
-        <v>1301472</v>
+        <v>732965</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,10 +4175,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>625</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>667717</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>23</v>
@@ -4127,10 +4190,10 @@
         <v>23</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>23</v>
@@ -4142,10 +4205,10 @@
         <v>23</v>
       </c>
       <c r="M15" s="7">
-        <v>1252</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1343913</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>23</v>
@@ -4177,7 +4240,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -4186,13 +4249,13 @@
         <v>8000</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -4201,13 +4264,13 @@
         <v>8000</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4225,7 +4288,7 @@
         <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>23</v>
@@ -4237,13 +4300,13 @@
         <v>211591</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="M17" s="7">
         <v>400</v>
@@ -4252,13 +4315,13 @@
         <v>424209</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4332,7 +4395,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -4341,13 +4404,13 @@
         <v>6212</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -4356,10 +4419,10 @@
         <v>6212</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>87</v>
@@ -4380,7 +4443,7 @@
         <v>21</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>23</v>
@@ -4392,13 +4455,13 @@
         <v>271884</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="M20" s="7">
         <v>523</v>
@@ -4407,13 +4470,13 @@
         <v>545865</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>94</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4487,7 +4550,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="H22" s="7">
         <v>29</v>
@@ -4496,13 +4559,13 @@
         <v>30975</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="M22" s="7">
         <v>30</v>
@@ -4511,13 +4574,13 @@
         <v>32046</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4535,7 +4598,7 @@
         <v>120</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>21</v>
@@ -4547,13 +4610,13 @@
         <v>662878</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="M23" s="7">
         <v>1224</v>
@@ -4562,13 +4625,13 @@
         <v>1324595</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4636,13 +4699,13 @@
         <v>1051</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="H25" s="7">
         <v>27</v>
@@ -4651,13 +4714,13 @@
         <v>29965</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="M25" s="7">
         <v>28</v>
@@ -4666,13 +4729,13 @@
         <v>31016</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4687,10 +4750,10 @@
         <v>778047</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>21</v>
@@ -4702,13 +4765,13 @@
         <v>792613</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="M26" s="7">
         <v>1445</v>
@@ -4717,13 +4780,13 @@
         <v>1570660</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4791,13 +4854,13 @@
         <v>6365</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="H28" s="7">
         <v>131</v>
@@ -4806,13 +4869,13 @@
         <v>142365</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="M28" s="7">
         <v>136</v>
@@ -4821,13 +4884,13 @@
         <v>148730</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4842,13 +4905,13 @@
         <v>3419411</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="H29" s="7">
         <v>3164</v>
@@ -4857,13 +4920,13 @@
         <v>3411625</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="M29" s="7">
         <v>6367</v>
@@ -4872,13 +4935,13 @@
         <v>6831036</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4958,7 +5021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706BBB94-D283-48AD-9EC9-477C36A3C159}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF8C4EC-3326-4A1B-9514-9AA8F1266C49}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4975,7 +5038,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5082,13 +5145,13 @@
         <v>802</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -5097,13 +5160,13 @@
         <v>12687</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -5112,13 +5175,13 @@
         <v>13488</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5133,10 +5196,10 @@
         <v>292959</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -5148,13 +5211,13 @@
         <v>276016</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="M5" s="7">
         <v>530</v>
@@ -5163,13 +5226,13 @@
         <v>568976</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5237,7 +5300,7 @@
         <v>741</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
@@ -5252,10 +5315,10 @@
         <v>17750</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>16</v>
@@ -5267,13 +5330,13 @@
         <v>18491</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5288,7 +5351,7 @@
         <v>501834</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>153</v>
@@ -5303,13 +5366,13 @@
         <v>505334</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="M8" s="7">
         <v>943</v>
@@ -5318,13 +5381,13 @@
         <v>1007168</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5398,7 +5461,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -5407,13 +5470,13 @@
         <v>5261</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -5422,13 +5485,13 @@
         <v>5261</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5446,7 +5509,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>23</v>
@@ -5458,13 +5521,13 @@
         <v>331048</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="M11" s="7">
         <v>663</v>
@@ -5473,13 +5536,13 @@
         <v>649613</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5547,13 +5610,13 @@
         <v>1828</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -5562,13 +5625,13 @@
         <v>24953</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -5577,13 +5640,13 @@
         <v>26780</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5598,10 +5661,10 @@
         <v>368136</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -5613,10 +5676,10 @@
         <v>362330</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>73</v>
@@ -5628,13 +5691,13 @@
         <v>730467</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5708,7 +5771,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -5723,7 +5786,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -5732,13 +5795,13 @@
         <v>2161</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5756,7 +5819,7 @@
         <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>23</v>
@@ -5771,7 +5834,7 @@
         <v>93</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>21</v>
@@ -5783,10 +5846,10 @@
         <v>427647</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>21</v>
@@ -5857,13 +5920,13 @@
         <v>2448</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -5875,10 +5938,10 @@
         <v>51</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -5887,13 +5950,13 @@
         <v>8659</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5908,10 +5971,10 @@
         <v>260675</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>21</v>
@@ -5926,10 +5989,10 @@
         <v>60</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="M20" s="7">
         <v>514</v>
@@ -5938,13 +6001,13 @@
         <v>527579</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6012,13 +6075,13 @@
         <v>5033</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="H22" s="7">
         <v>28</v>
@@ -6027,13 +6090,13 @@
         <v>31832</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="M22" s="7">
         <v>33</v>
@@ -6042,13 +6105,13 @@
         <v>36865</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6063,13 +6126,13 @@
         <v>651525</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="H23" s="7">
         <v>618</v>
@@ -6078,13 +6141,13 @@
         <v>659462</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="M23" s="7">
         <v>1193</v>
@@ -6093,13 +6156,13 @@
         <v>1310987</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6167,13 +6230,13 @@
         <v>921</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -6182,13 +6245,13 @@
         <v>21309</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="M25" s="7">
         <v>20</v>
@@ -6197,13 +6260,13 @@
         <v>22229</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6218,10 +6281,10 @@
         <v>777662</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>21</v>
@@ -6233,13 +6296,13 @@
         <v>804858</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="M26" s="7">
         <v>1485</v>
@@ -6248,13 +6311,13 @@
         <v>1582521</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6322,13 +6385,13 @@
         <v>11772</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="H28" s="7">
         <v>106</v>
@@ -6337,13 +6400,13 @@
         <v>122163</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="M28" s="7">
         <v>118</v>
@@ -6352,13 +6415,13 @@
         <v>133935</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>188</v>
+        <v>384</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6373,13 +6436,13 @@
         <v>3382578</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="H29" s="7">
         <v>3232</v>
@@ -6388,13 +6451,13 @@
         <v>3422379</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="M29" s="7">
         <v>6451</v>
@@ -6403,13 +6466,13 @@
         <v>6804957</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>195</v>
+        <v>391</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6489,7 +6552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0263DCB6-4C40-4972-BBF6-BEE4AC251B2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA664287-2042-440F-8086-2471AC038E86}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6506,7 +6569,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6610,46 +6673,46 @@
         <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>2271</v>
+        <v>2537</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>376</v>
+        <v>189</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
       </c>
       <c r="I4" s="7">
-        <v>9513</v>
+        <v>9632</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>380</v>
+        <v>298</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
       </c>
       <c r="N4" s="7">
-        <v>11784</v>
+        <v>12169</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>382</v>
+        <v>69</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>384</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,46 +6724,46 @@
         <v>328</v>
       </c>
       <c r="D5" s="7">
-        <v>258027</v>
+        <v>308906</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>385</v>
+        <v>196</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="H5" s="7">
         <v>519</v>
       </c>
       <c r="I5" s="7">
-        <v>261890</v>
+        <v>280003</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>390</v>
+        <v>303</v>
       </c>
       <c r="M5" s="7">
         <v>847</v>
       </c>
       <c r="N5" s="7">
-        <v>519916</v>
+        <v>588908</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>391</v>
+        <v>76</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>392</v>
+        <v>344</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6712,7 +6775,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>23</v>
@@ -6727,7 +6790,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>23</v>
@@ -6742,7 +6805,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>23</v>
@@ -6765,46 +6828,46 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>941</v>
+        <v>864</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
       </c>
       <c r="I7" s="7">
-        <v>18472</v>
+        <v>16790</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>397</v>
+        <v>266</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
       </c>
       <c r="N7" s="7">
-        <v>19413</v>
+        <v>17654</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>398</v>
+        <v>177</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6816,13 +6879,13 @@
         <v>380</v>
       </c>
       <c r="D8" s="7">
-        <v>517286</v>
+        <v>516529</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -6831,31 +6894,31 @@
         <v>681</v>
       </c>
       <c r="I8" s="7">
-        <v>530110</v>
+        <v>492578</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>404</v>
+        <v>274</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M8" s="7">
         <v>1061</v>
       </c>
       <c r="N8" s="7">
-        <v>1047396</v>
+        <v>1009107</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>405</v>
+        <v>182</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6867,7 +6930,7 @@
         <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>518227</v>
+        <v>517393</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>23</v>
@@ -6882,7 +6945,7 @@
         <v>708</v>
       </c>
       <c r="I9" s="7">
-        <v>548582</v>
+        <v>509368</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>23</v>
@@ -6897,7 +6960,7 @@
         <v>1089</v>
       </c>
       <c r="N9" s="7">
-        <v>1066809</v>
+        <v>1026761</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>23</v>
@@ -6920,46 +6983,46 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>965</v>
+        <v>933</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
       </c>
       <c r="I10" s="7">
-        <v>17734</v>
+        <v>16444</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
       </c>
       <c r="N10" s="7">
-        <v>18699</v>
+        <v>17376</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>149</v>
+        <v>418</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6971,13 +7034,13 @@
         <v>358</v>
       </c>
       <c r="D11" s="7">
-        <v>320602</v>
+        <v>314490</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -6986,31 +7049,31 @@
         <v>505</v>
       </c>
       <c r="I11" s="7">
-        <v>355550</v>
+        <v>332684</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="M11" s="7">
         <v>863</v>
       </c>
       <c r="N11" s="7">
-        <v>676152</v>
+        <v>647175</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>157</v>
+        <v>426</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7022,7 +7085,7 @@
         <v>359</v>
       </c>
       <c r="D12" s="7">
-        <v>321567</v>
+        <v>315423</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>23</v>
@@ -7037,7 +7100,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>23</v>
@@ -7052,7 +7115,7 @@
         <v>895</v>
       </c>
       <c r="N12" s="7">
-        <v>694851</v>
+        <v>664551</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>23</v>
@@ -7075,46 +7138,46 @@
         <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>7497</v>
+        <v>7728</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>99</v>
+        <v>429</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>201</v>
+        <v>430</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="H13" s="7">
         <v>71</v>
       </c>
       <c r="I13" s="7">
-        <v>34705</v>
+        <v>32017</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>184</v>
+        <v>433</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="M13" s="7">
         <v>78</v>
       </c>
       <c r="N13" s="7">
-        <v>42202</v>
+        <v>39745</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>425</v>
+        <v>38</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7126,46 +7189,46 @@
         <v>285</v>
       </c>
       <c r="D14" s="7">
-        <v>314743</v>
+        <v>304829</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>106</v>
+        <v>437</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>439</v>
       </c>
       <c r="H14" s="7">
         <v>528</v>
       </c>
       <c r="I14" s="7">
-        <v>393851</v>
+        <v>443701</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>190</v>
+        <v>442</v>
       </c>
       <c r="M14" s="7">
         <v>813</v>
       </c>
       <c r="N14" s="7">
-        <v>708594</v>
+        <v>748529</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>431</v>
+        <v>45</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7177,7 +7240,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>23</v>
@@ -7192,7 +7255,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>23</v>
@@ -7207,7 +7270,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>23</v>
@@ -7230,46 +7293,46 @@
         <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>1644</v>
+        <v>1501</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>188</v>
+        <v>384</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
       </c>
       <c r="I16" s="7">
-        <v>11498</v>
+        <v>10415</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>133</v>
+        <v>446</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>435</v>
+        <v>33</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
       </c>
       <c r="N16" s="7">
-        <v>13142</v>
+        <v>11916</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>437</v>
+        <v>312</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7281,13 +7344,13 @@
         <v>276</v>
       </c>
       <c r="D17" s="7">
-        <v>195104</v>
+        <v>177241</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>195</v>
+        <v>391</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>95</v>
@@ -7296,31 +7359,31 @@
         <v>463</v>
       </c>
       <c r="I17" s="7">
-        <v>219998</v>
+        <v>197859</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>440</v>
+        <v>41</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>142</v>
+        <v>450</v>
       </c>
       <c r="M17" s="7">
         <v>739</v>
       </c>
       <c r="N17" s="7">
-        <v>415102</v>
+        <v>375100</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>443</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7332,7 +7395,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>23</v>
@@ -7347,7 +7410,7 @@
         <v>491</v>
       </c>
       <c r="I18" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>23</v>
@@ -7362,7 +7425,7 @@
         <v>770</v>
       </c>
       <c r="N18" s="7">
-        <v>428244</v>
+        <v>387016</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>23</v>
@@ -7385,46 +7448,46 @@
         <v>7</v>
       </c>
       <c r="D19" s="7">
-        <v>4671</v>
+        <v>4426</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>226</v>
+        <v>453</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>13</v>
+        <v>454</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="H19" s="7">
         <v>38</v>
       </c>
       <c r="I19" s="7">
-        <v>17028</v>
+        <v>15847</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="M19" s="7">
         <v>45</v>
       </c>
       <c r="N19" s="7">
-        <v>21699</v>
+        <v>20273</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>449</v>
+        <v>381</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7436,46 +7499,46 @@
         <v>363</v>
       </c>
       <c r="D20" s="7">
-        <v>272008</v>
+        <v>264693</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>233</v>
+        <v>461</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>22</v>
+        <v>463</v>
       </c>
       <c r="H20" s="7">
         <v>421</v>
       </c>
       <c r="I20" s="7">
-        <v>257877</v>
+        <v>240540</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="M20" s="7">
         <v>784</v>
       </c>
       <c r="N20" s="7">
-        <v>529884</v>
+        <v>505233</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>457</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7487,7 +7550,7 @@
         <v>370</v>
       </c>
       <c r="D21" s="7">
-        <v>276679</v>
+        <v>269119</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>23</v>
@@ -7502,7 +7565,7 @@
         <v>459</v>
       </c>
       <c r="I21" s="7">
-        <v>274905</v>
+        <v>256387</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>23</v>
@@ -7517,7 +7580,7 @@
         <v>829</v>
       </c>
       <c r="N21" s="7">
-        <v>551583</v>
+        <v>525506</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -7540,46 +7603,46 @@
         <v>5</v>
       </c>
       <c r="D22" s="7">
-        <v>4899</v>
+        <v>4499</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>86</v>
+        <v>469</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="H22" s="7">
         <v>62</v>
       </c>
       <c r="I22" s="7">
-        <v>37592</v>
+        <v>34221</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="M22" s="7">
         <v>67</v>
       </c>
       <c r="N22" s="7">
-        <v>42491</v>
+        <v>38720</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>285</v>
+        <v>473</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>211</v>
+        <v>474</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>462</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7591,46 +7654,46 @@
         <v>589</v>
       </c>
       <c r="D23" s="7">
-        <v>617722</v>
+        <v>614887</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>95</v>
+        <v>475</v>
       </c>
       <c r="H23" s="7">
         <v>889</v>
       </c>
       <c r="I23" s="7">
-        <v>761581</v>
+        <v>810405</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="M23" s="7">
         <v>1478</v>
       </c>
       <c r="N23" s="7">
-        <v>1379303</v>
+        <v>1425293</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>289</v>
+        <v>479</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>467</v>
+        <v>62</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>217</v>
+        <v>480</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7642,7 +7705,7 @@
         <v>594</v>
       </c>
       <c r="D24" s="7">
-        <v>622621</v>
+        <v>619386</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>23</v>
@@ -7657,7 +7720,7 @@
         <v>951</v>
       </c>
       <c r="I24" s="7">
-        <v>799173</v>
+        <v>844626</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>23</v>
@@ -7672,7 +7735,7 @@
         <v>1545</v>
       </c>
       <c r="N24" s="7">
-        <v>1421794</v>
+        <v>1464013</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>23</v>
@@ -7695,46 +7758,46 @@
         <v>8</v>
       </c>
       <c r="D25" s="7">
-        <v>6759</v>
+        <v>5829</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>212</v>
+        <v>18</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>363</v>
+        <v>481</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
       </c>
       <c r="I25" s="7">
-        <v>29911</v>
+        <v>25091</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>317</v>
+        <v>483</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="M25" s="7">
         <v>53</v>
       </c>
       <c r="N25" s="7">
-        <v>36670</v>
+        <v>30921</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>252</v>
+        <v>486</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>326</v>
+        <v>487</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>14</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7746,46 +7809,46 @@
         <v>754</v>
       </c>
       <c r="D26" s="7">
-        <v>852669</v>
+        <v>922891</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>219</v>
+        <v>29</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>369</v>
+        <v>489</v>
       </c>
       <c r="H26" s="7">
         <v>1014</v>
       </c>
       <c r="I26" s="7">
-        <v>834364</v>
+        <v>689114</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>320</v>
+        <v>490</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>473</v>
+        <v>492</v>
       </c>
       <c r="M26" s="7">
         <v>1768</v>
       </c>
       <c r="N26" s="7">
-        <v>1687033</v>
+        <v>1612005</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>261</v>
+        <v>493</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>24</v>
+        <v>292</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>331</v>
+        <v>494</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7797,7 +7860,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>23</v>
@@ -7812,7 +7875,7 @@
         <v>1059</v>
       </c>
       <c r="I27" s="7">
-        <v>864275</v>
+        <v>714205</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>23</v>
@@ -7827,7 +7890,7 @@
         <v>1821</v>
       </c>
       <c r="N27" s="7">
-        <v>1723703</v>
+        <v>1642926</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>23</v>
@@ -7850,46 +7913,46 @@
         <v>35</v>
       </c>
       <c r="D28" s="7">
-        <v>29648</v>
+        <v>28317</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>474</v>
+        <v>495</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>348</v>
+        <v>496</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>475</v>
+        <v>286</v>
       </c>
       <c r="H28" s="7">
         <v>321</v>
       </c>
       <c r="I28" s="7">
-        <v>176453</v>
+        <v>160456</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>476</v>
+        <v>497</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>477</v>
+        <v>147</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>478</v>
+        <v>148</v>
       </c>
       <c r="M28" s="7">
         <v>356</v>
       </c>
       <c r="N28" s="7">
-        <v>206101</v>
+        <v>188773</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>480</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7901,46 +7964,46 @@
         <v>3333</v>
       </c>
       <c r="D29" s="7">
-        <v>3348158</v>
+        <v>3424466</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>481</v>
+        <v>499</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>482</v>
+        <v>295</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>356</v>
+        <v>500</v>
       </c>
       <c r="H29" s="7">
         <v>5020</v>
       </c>
       <c r="I29" s="7">
-        <v>3615221</v>
+        <v>3486884</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>484</v>
+        <v>155</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>485</v>
+        <v>156</v>
       </c>
       <c r="M29" s="7">
         <v>8353</v>
       </c>
       <c r="N29" s="7">
-        <v>6963379</v>
+        <v>6911350</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>487</v>
+        <v>245</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7952,7 +8015,7 @@
         <v>3368</v>
       </c>
       <c r="D30" s="7">
-        <v>3377806</v>
+        <v>3452783</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>23</v>
@@ -7967,7 +8030,7 @@
         <v>5341</v>
       </c>
       <c r="I30" s="7">
-        <v>3791674</v>
+        <v>3647340</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>23</v>
@@ -7982,7 +8045,7 @@
         <v>8709</v>
       </c>
       <c r="N30" s="7">
-        <v>7169480</v>
+        <v>7100123</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>23</v>
